--- a/MgrValue.xlsx
+++ b/MgrValue.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\Advancement--OfficeAdmin\LANCE\WTW\Data Vis - GR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7698EAEE-EC07-44AE-A9E4-12C52A957E95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776C36A-E2BB-4360-A386-F35CA6FD1040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F45D69F6-3252-4F36-98D1-EA00C8E1DCE3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F45D69F6-3252-4F36-98D1-EA00C8E1DCE3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -349,12 +349,6 @@
     <t>Year</t>
   </si>
   <si>
-    <t>SacCh</t>
-  </si>
-  <si>
-    <t>SacAtt</t>
-  </si>
-  <si>
     <t>Luis Rojas</t>
   </si>
   <si>
@@ -580,10 +574,16 @@
     <t>St3rdSuc</t>
   </si>
   <si>
-    <t>SacSuc</t>
+    <t>tWAR</t>
   </si>
   <si>
-    <t>tWAR</t>
+    <t>SacBuntCh</t>
+  </si>
+  <si>
+    <t>SacBuntAtt</t>
+  </si>
+  <si>
+    <t>SacBuntSuc</t>
   </si>
 </sst>
 </file>
@@ -938,7 +938,7 @@
   <dimension ref="A1:AB495"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -959,9 +959,9 @@
     <col min="15" max="15" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.85546875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="5.5703125" bestFit="1" customWidth="1"/>
@@ -990,7 +990,7 @@
         <v>69</v>
       </c>
       <c r="G1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H1" t="s">
         <v>70</v>
@@ -1017,7 +1017,7 @@
         <v>82</v>
       </c>
       <c r="P1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="Q1" t="s">
         <v>83</v>
@@ -1026,16 +1026,16 @@
         <v>84</v>
       </c>
       <c r="S1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T1" t="s">
         <v>162</v>
       </c>
-      <c r="T1" t="s">
-        <v>86</v>
-      </c>
       <c r="U1" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="V1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="W1" t="s">
         <v>76</v>
@@ -1053,7 +1053,7 @@
         <v>80</v>
       </c>
       <c r="AB1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.25">
@@ -5329,7 +5329,7 @@
         <v>2021</v>
       </c>
       <c r="B54" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C54" t="s">
         <v>37</v>
@@ -5735,7 +5735,7 @@
         <v>2021</v>
       </c>
       <c r="B59" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C59" t="s">
         <v>48</v>
@@ -5981,7 +5981,7 @@
         <v>2021</v>
       </c>
       <c r="B62" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62" t="s">
         <v>54</v>
@@ -6639,7 +6639,7 @@
         <v>2020</v>
       </c>
       <c r="B70" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C70" t="s">
         <v>7</v>
@@ -6805,7 +6805,7 @@
         <v>2020</v>
       </c>
       <c r="B72" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C72" t="s">
         <v>11</v>
@@ -7143,7 +7143,7 @@
         <v>2020</v>
       </c>
       <c r="B76" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C76" t="s">
         <v>20</v>
@@ -7223,7 +7223,7 @@
         <v>2020</v>
       </c>
       <c r="B77" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C77" t="s">
         <v>20</v>
@@ -7893,7 +7893,7 @@
         <v>2020</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C85" t="s">
         <v>37</v>
@@ -8305,7 +8305,7 @@
         <v>2020</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C90" t="s">
         <v>48</v>
@@ -8551,7 +8551,7 @@
         <v>2020</v>
       </c>
       <c r="B93" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C93" t="s">
         <v>54</v>
@@ -9375,7 +9375,7 @@
         <v>2019</v>
       </c>
       <c r="B103" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C103" t="s">
         <v>11</v>
@@ -9695,7 +9695,7 @@
         <v>2019</v>
       </c>
       <c r="B107" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C107" t="s">
         <v>20</v>
@@ -9861,7 +9861,7 @@
         <v>2019</v>
       </c>
       <c r="B109" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C109" t="s">
         <v>24</v>
@@ -9941,7 +9941,7 @@
         <v>2019</v>
       </c>
       <c r="B110" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -10359,7 +10359,7 @@
         <v>2019</v>
       </c>
       <c r="B115" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C115" t="s">
         <v>37</v>
@@ -10691,7 +10691,7 @@
         <v>2019</v>
       </c>
       <c r="B119" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C119" t="s">
         <v>46</v>
@@ -10771,7 +10771,7 @@
         <v>2019</v>
       </c>
       <c r="B120" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
         <v>46</v>
@@ -10851,7 +10851,7 @@
         <v>2019</v>
       </c>
       <c r="B121" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C121" t="s">
         <v>48</v>
@@ -10931,7 +10931,7 @@
         <v>2019</v>
       </c>
       <c r="B122" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C122" t="s">
         <v>48</v>
@@ -11091,7 +11091,7 @@
         <v>2019</v>
       </c>
       <c r="B124" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C124" t="s">
         <v>52</v>
@@ -11171,7 +11171,7 @@
         <v>2019</v>
       </c>
       <c r="B125" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C125" t="s">
         <v>54</v>
@@ -12007,7 +12007,7 @@
         <v>2018</v>
       </c>
       <c r="B135" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C135" t="s">
         <v>11</v>
@@ -12087,7 +12087,7 @@
         <v>2018</v>
       </c>
       <c r="B136" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C136" t="s">
         <v>14</v>
@@ -12167,7 +12167,7 @@
         <v>2018</v>
       </c>
       <c r="B137" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C137" t="s">
         <v>14</v>
@@ -12419,7 +12419,7 @@
         <v>2018</v>
       </c>
       <c r="B140" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C140" t="s">
         <v>20</v>
@@ -12585,7 +12585,7 @@
         <v>2018</v>
       </c>
       <c r="B142" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C142" t="s">
         <v>24</v>
@@ -12665,7 +12665,7 @@
         <v>2018</v>
       </c>
       <c r="B143" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C143" t="s">
         <v>26</v>
@@ -12997,7 +12997,7 @@
         <v>2018</v>
       </c>
       <c r="B147" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C147" t="s">
         <v>35</v>
@@ -13077,7 +13077,7 @@
         <v>2018</v>
       </c>
       <c r="B148" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C148" t="s">
         <v>37</v>
@@ -13409,7 +13409,7 @@
         <v>2018</v>
       </c>
       <c r="B152" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C152" t="s">
         <v>46</v>
@@ -13489,7 +13489,7 @@
         <v>2018</v>
       </c>
       <c r="B153" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C153" t="s">
         <v>48</v>
@@ -13649,7 +13649,7 @@
         <v>2018</v>
       </c>
       <c r="B155" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C155" t="s">
         <v>52</v>
@@ -13809,7 +13809,7 @@
         <v>2018</v>
       </c>
       <c r="B157" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C157" t="s">
         <v>54</v>
@@ -13969,7 +13969,7 @@
         <v>2018</v>
       </c>
       <c r="B159" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C159" t="s">
         <v>58</v>
@@ -14049,7 +14049,7 @@
         <v>2018</v>
       </c>
       <c r="B160" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C160" t="s">
         <v>58</v>
@@ -14129,7 +14129,7 @@
         <v>2018</v>
       </c>
       <c r="B161" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C161" t="s">
         <v>61</v>
@@ -14535,7 +14535,7 @@
         <v>2017</v>
       </c>
       <c r="B166" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C166" t="s">
         <v>7</v>
@@ -14707,7 +14707,7 @@
         <v>2017</v>
       </c>
       <c r="B168" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C168" t="s">
         <v>11</v>
@@ -14787,7 +14787,7 @@
         <v>2017</v>
       </c>
       <c r="B169" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C169" t="s">
         <v>14</v>
@@ -15039,7 +15039,7 @@
         <v>2017</v>
       </c>
       <c r="B172" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C172" t="s">
         <v>20</v>
@@ -15205,7 +15205,7 @@
         <v>2017</v>
       </c>
       <c r="B174" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C174" t="s">
         <v>24</v>
@@ -15285,7 +15285,7 @@
         <v>2017</v>
       </c>
       <c r="B175" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C175" t="s">
         <v>26</v>
@@ -15611,7 +15611,7 @@
         <v>2017</v>
       </c>
       <c r="B179" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C179" t="s">
         <v>35</v>
@@ -15697,7 +15697,7 @@
         <v>2017</v>
       </c>
       <c r="B180" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C180" t="s">
         <v>37</v>
@@ -15943,7 +15943,7 @@
         <v>2017</v>
       </c>
       <c r="B183" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C183" t="s">
         <v>43</v>
@@ -16023,7 +16023,7 @@
         <v>2017</v>
       </c>
       <c r="B184" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C184" t="s">
         <v>46</v>
@@ -16103,7 +16103,7 @@
         <v>2017</v>
       </c>
       <c r="B185" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C185" t="s">
         <v>48</v>
@@ -16263,7 +16263,7 @@
         <v>2017</v>
       </c>
       <c r="B187" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C187" t="s">
         <v>52</v>
@@ -16503,7 +16503,7 @@
         <v>2017</v>
       </c>
       <c r="B190" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C190" t="s">
         <v>58</v>
@@ -16583,7 +16583,7 @@
         <v>2017</v>
       </c>
       <c r="B191" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C191" t="s">
         <v>61</v>
@@ -16749,7 +16749,7 @@
         <v>2016</v>
       </c>
       <c r="B193" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C193" t="s">
         <v>1</v>
@@ -16829,7 +16829,7 @@
         <v>2016</v>
       </c>
       <c r="B194" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C194" t="s">
         <v>3</v>
@@ -17075,7 +17075,7 @@
         <v>2016</v>
       </c>
       <c r="B197" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C197" t="s">
         <v>7</v>
@@ -17247,7 +17247,7 @@
         <v>2016</v>
       </c>
       <c r="B199" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C199" t="s">
         <v>11</v>
@@ -17327,7 +17327,7 @@
         <v>2016</v>
       </c>
       <c r="B200" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C200" t="s">
         <v>14</v>
@@ -17493,7 +17493,7 @@
         <v>2016</v>
       </c>
       <c r="B202" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C202" t="s">
         <v>18</v>
@@ -17573,7 +17573,7 @@
         <v>2016</v>
       </c>
       <c r="B203" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C203" t="s">
         <v>20</v>
@@ -17733,7 +17733,7 @@
         <v>2016</v>
       </c>
       <c r="B205" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C205" t="s">
         <v>24</v>
@@ -17813,7 +17813,7 @@
         <v>2016</v>
       </c>
       <c r="B206" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C206" t="s">
         <v>26</v>
@@ -18139,7 +18139,7 @@
         <v>2016</v>
       </c>
       <c r="B210" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C210" t="s">
         <v>35</v>
@@ -18219,7 +18219,7 @@
         <v>2016</v>
       </c>
       <c r="B211" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C211" t="s">
         <v>37</v>
@@ -18465,7 +18465,7 @@
         <v>2016</v>
       </c>
       <c r="B214" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C214" t="s">
         <v>43</v>
@@ -18545,7 +18545,7 @@
         <v>2016</v>
       </c>
       <c r="B215" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C215" t="s">
         <v>46</v>
@@ -18625,7 +18625,7 @@
         <v>2016</v>
       </c>
       <c r="B216" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C216" t="s">
         <v>48</v>
@@ -18785,7 +18785,7 @@
         <v>2016</v>
       </c>
       <c r="B218" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C218" t="s">
         <v>52</v>
@@ -19031,7 +19031,7 @@
         <v>2016</v>
       </c>
       <c r="B221" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C221" t="s">
         <v>58</v>
@@ -19117,7 +19117,7 @@
         <v>2016</v>
       </c>
       <c r="B222" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C222" t="s">
         <v>61</v>
@@ -19289,7 +19289,7 @@
         <v>2015</v>
       </c>
       <c r="B224" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C224" t="s">
         <v>1</v>
@@ -19369,7 +19369,7 @@
         <v>2015</v>
       </c>
       <c r="B225" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C225" t="s">
         <v>3</v>
@@ -19529,7 +19529,7 @@
         <v>2015</v>
       </c>
       <c r="B227" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C227" t="s">
         <v>7</v>
@@ -19695,7 +19695,7 @@
         <v>2015</v>
       </c>
       <c r="B229" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C229" t="s">
         <v>11</v>
@@ -19775,7 +19775,7 @@
         <v>2015</v>
       </c>
       <c r="B230" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C230" t="s">
         <v>14</v>
@@ -19935,7 +19935,7 @@
         <v>2015</v>
       </c>
       <c r="B232" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C232" t="s">
         <v>18</v>
@@ -20015,7 +20015,7 @@
         <v>2015</v>
       </c>
       <c r="B233" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C233" t="s">
         <v>20</v>
@@ -20181,7 +20181,7 @@
         <v>2015</v>
       </c>
       <c r="B235" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C235" t="s">
         <v>24</v>
@@ -20267,7 +20267,7 @@
         <v>2015</v>
       </c>
       <c r="B236" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C236" t="s">
         <v>26</v>
@@ -20433,7 +20433,7 @@
         <v>2015</v>
       </c>
       <c r="B238" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C238" t="s">
         <v>31</v>
@@ -20513,7 +20513,7 @@
         <v>2015</v>
       </c>
       <c r="B239" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C239" t="s">
         <v>31</v>
@@ -20673,7 +20673,7 @@
         <v>2015</v>
       </c>
       <c r="B241" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C241" t="s">
         <v>33</v>
@@ -20753,7 +20753,7 @@
         <v>2015</v>
       </c>
       <c r="B242" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C242" t="s">
         <v>35</v>
@@ -20833,7 +20833,7 @@
         <v>2015</v>
       </c>
       <c r="B243" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C243" t="s">
         <v>37</v>
@@ -21085,7 +21085,7 @@
         <v>2015</v>
       </c>
       <c r="B246" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C246" t="s">
         <v>43</v>
@@ -21165,7 +21165,7 @@
         <v>2015</v>
       </c>
       <c r="B247" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C247" t="s">
         <v>43</v>
@@ -21245,7 +21245,7 @@
         <v>2015</v>
       </c>
       <c r="B248" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C248" t="s">
         <v>46</v>
@@ -21491,7 +21491,7 @@
         <v>2015</v>
       </c>
       <c r="B251" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C251" t="s">
         <v>48</v>
@@ -21571,7 +21571,7 @@
         <v>2015</v>
       </c>
       <c r="B252" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C252" t="s">
         <v>50</v>
@@ -21651,7 +21651,7 @@
         <v>2015</v>
       </c>
       <c r="B253" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C253" t="s">
         <v>52</v>
@@ -21897,7 +21897,7 @@
         <v>2015</v>
       </c>
       <c r="B256" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C256" t="s">
         <v>58</v>
@@ -21983,7 +21983,7 @@
         <v>2015</v>
       </c>
       <c r="B257" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C257" t="s">
         <v>61</v>
@@ -22069,7 +22069,7 @@
         <v>2015</v>
       </c>
       <c r="B258" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C258" t="s">
         <v>64</v>
@@ -22149,7 +22149,7 @@
         <v>2014</v>
       </c>
       <c r="B259" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C259" t="s">
         <v>1</v>
@@ -22229,7 +22229,7 @@
         <v>2014</v>
       </c>
       <c r="B260" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C260" t="s">
         <v>1</v>
@@ -22309,7 +22309,7 @@
         <v>2014</v>
       </c>
       <c r="B261" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C261" t="s">
         <v>3</v>
@@ -22475,7 +22475,7 @@
         <v>2014</v>
       </c>
       <c r="B263" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C263" t="s">
         <v>7</v>
@@ -22555,7 +22555,7 @@
         <v>2014</v>
       </c>
       <c r="B264" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C264" t="s">
         <v>9</v>
@@ -22635,7 +22635,7 @@
         <v>2014</v>
       </c>
       <c r="B265" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C265" t="s">
         <v>11</v>
@@ -22715,7 +22715,7 @@
         <v>2014</v>
       </c>
       <c r="B266" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C266" t="s">
         <v>14</v>
@@ -22875,7 +22875,7 @@
         <v>2014</v>
       </c>
       <c r="B268" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C268" t="s">
         <v>18</v>
@@ -22955,7 +22955,7 @@
         <v>2014</v>
       </c>
       <c r="B269" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C269" t="s">
         <v>20</v>
@@ -23041,7 +23041,7 @@
         <v>2014</v>
       </c>
       <c r="B270" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C270" t="s">
         <v>22</v>
@@ -23121,7 +23121,7 @@
         <v>2014</v>
       </c>
       <c r="B271" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C271" t="s">
         <v>22</v>
@@ -23201,7 +23201,7 @@
         <v>2014</v>
       </c>
       <c r="B272" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C272" t="s">
         <v>24</v>
@@ -23287,7 +23287,7 @@
         <v>2014</v>
       </c>
       <c r="B273" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C273" t="s">
         <v>26</v>
@@ -23459,7 +23459,7 @@
         <v>2014</v>
       </c>
       <c r="B275" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C275" t="s">
         <v>31</v>
@@ -23539,7 +23539,7 @@
         <v>2014</v>
       </c>
       <c r="B276" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C276" t="s">
         <v>33</v>
@@ -23619,7 +23619,7 @@
         <v>2014</v>
       </c>
       <c r="B277" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C277" t="s">
         <v>35</v>
@@ -23699,7 +23699,7 @@
         <v>2014</v>
       </c>
       <c r="B278" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C278" t="s">
         <v>37</v>
@@ -23945,7 +23945,7 @@
         <v>2014</v>
       </c>
       <c r="B281" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C281" t="s">
         <v>43</v>
@@ -24025,7 +24025,7 @@
         <v>2014</v>
       </c>
       <c r="B282" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C282" t="s">
         <v>46</v>
@@ -24191,7 +24191,7 @@
         <v>2014</v>
       </c>
       <c r="B284" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C284" t="s">
         <v>50</v>
@@ -24271,7 +24271,7 @@
         <v>2014</v>
       </c>
       <c r="B285" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C285" t="s">
         <v>52</v>
@@ -24523,7 +24523,7 @@
         <v>2014</v>
       </c>
       <c r="B288" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C288" t="s">
         <v>58</v>
@@ -24603,7 +24603,7 @@
         <v>2014</v>
       </c>
       <c r="B289" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C289" t="s">
         <v>58</v>
@@ -24683,7 +24683,7 @@
         <v>2014</v>
       </c>
       <c r="B290" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C290" t="s">
         <v>61</v>
@@ -24763,7 +24763,7 @@
         <v>2014</v>
       </c>
       <c r="B291" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C291" t="s">
         <v>64</v>
@@ -24849,7 +24849,7 @@
         <v>2013</v>
       </c>
       <c r="B292" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C292" t="s">
         <v>1</v>
@@ -24923,7 +24923,7 @@
         <v>2013</v>
       </c>
       <c r="B293" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C293" t="s">
         <v>3</v>
@@ -25077,7 +25077,7 @@
         <v>2013</v>
       </c>
       <c r="B295" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C295" t="s">
         <v>7</v>
@@ -25157,7 +25157,7 @@
         <v>2013</v>
       </c>
       <c r="B296" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C296" t="s">
         <v>9</v>
@@ -25231,7 +25231,7 @@
         <v>2013</v>
       </c>
       <c r="B297" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C297" t="s">
         <v>11</v>
@@ -25465,7 +25465,7 @@
         <v>2013</v>
       </c>
       <c r="B300" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C300" t="s">
         <v>18</v>
@@ -25539,7 +25539,7 @@
         <v>2013</v>
       </c>
       <c r="B301" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C301" t="s">
         <v>20</v>
@@ -25619,7 +25619,7 @@
         <v>2013</v>
       </c>
       <c r="B302" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C302" t="s">
         <v>22</v>
@@ -25693,7 +25693,7 @@
         <v>2013</v>
       </c>
       <c r="B303" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C303" t="s">
         <v>24</v>
@@ -25767,7 +25767,7 @@
         <v>2013</v>
       </c>
       <c r="B304" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C304" t="s">
         <v>26</v>
@@ -25921,7 +25921,7 @@
         <v>2013</v>
       </c>
       <c r="B306" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C306" t="s">
         <v>31</v>
@@ -25995,7 +25995,7 @@
         <v>2013</v>
       </c>
       <c r="B307" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C307" t="s">
         <v>33</v>
@@ -26069,7 +26069,7 @@
         <v>2013</v>
       </c>
       <c r="B308" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C308" t="s">
         <v>35</v>
@@ -26143,7 +26143,7 @@
         <v>2013</v>
       </c>
       <c r="B309" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C309" t="s">
         <v>37</v>
@@ -26371,7 +26371,7 @@
         <v>2013</v>
       </c>
       <c r="B312" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C312" t="s">
         <v>43</v>
@@ -26445,7 +26445,7 @@
         <v>2013</v>
       </c>
       <c r="B313" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C313" t="s">
         <v>43</v>
@@ -26519,7 +26519,7 @@
         <v>2013</v>
       </c>
       <c r="B314" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C314" t="s">
         <v>46</v>
@@ -26673,7 +26673,7 @@
         <v>2013</v>
       </c>
       <c r="B316" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C316" t="s">
         <v>50</v>
@@ -26747,7 +26747,7 @@
         <v>2013</v>
       </c>
       <c r="B317" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C317" t="s">
         <v>52</v>
@@ -26981,7 +26981,7 @@
         <v>2013</v>
       </c>
       <c r="B320" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C320" t="s">
         <v>58</v>
@@ -27055,7 +27055,7 @@
         <v>2013</v>
       </c>
       <c r="B321" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C321" t="s">
         <v>61</v>
@@ -27129,7 +27129,7 @@
         <v>2013</v>
       </c>
       <c r="B322" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C322" t="s">
         <v>64</v>
@@ -27203,7 +27203,7 @@
         <v>2012</v>
       </c>
       <c r="B323" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C323" t="s">
         <v>1</v>
@@ -27277,7 +27277,7 @@
         <v>2012</v>
       </c>
       <c r="B324" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C324" t="s">
         <v>3</v>
@@ -27437,7 +27437,7 @@
         <v>2012</v>
       </c>
       <c r="B326" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C326" t="s">
         <v>7</v>
@@ -27511,7 +27511,7 @@
         <v>2012</v>
       </c>
       <c r="B327" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C327" t="s">
         <v>9</v>
@@ -27585,7 +27585,7 @@
         <v>2012</v>
       </c>
       <c r="B328" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C328" t="s">
         <v>11</v>
@@ -27739,7 +27739,7 @@
         <v>2012</v>
       </c>
       <c r="B330" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C330" t="s">
         <v>16</v>
@@ -27813,7 +27813,7 @@
         <v>2012</v>
       </c>
       <c r="B331" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C331" t="s">
         <v>16</v>
@@ -27887,7 +27887,7 @@
         <v>2012</v>
       </c>
       <c r="B332" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C332" t="s">
         <v>18</v>
@@ -27961,7 +27961,7 @@
         <v>2012</v>
       </c>
       <c r="B333" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C333" t="s">
         <v>20</v>
@@ -28041,7 +28041,7 @@
         <v>2012</v>
       </c>
       <c r="B334" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C334" t="s">
         <v>22</v>
@@ -28115,7 +28115,7 @@
         <v>2012</v>
       </c>
       <c r="B335" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C335" t="s">
         <v>22</v>
@@ -28189,7 +28189,7 @@
         <v>2012</v>
       </c>
       <c r="B336" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C336" t="s">
         <v>24</v>
@@ -28263,7 +28263,7 @@
         <v>2012</v>
       </c>
       <c r="B337" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C337" t="s">
         <v>26</v>
@@ -28411,7 +28411,7 @@
         <v>2012</v>
       </c>
       <c r="B339" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C339" t="s">
         <v>31</v>
@@ -28485,7 +28485,7 @@
         <v>2012</v>
       </c>
       <c r="B340" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C340" t="s">
         <v>33</v>
@@ -28559,7 +28559,7 @@
         <v>2012</v>
       </c>
       <c r="B341" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C341" t="s">
         <v>35</v>
@@ -28633,7 +28633,7 @@
         <v>2012</v>
       </c>
       <c r="B342" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C342" t="s">
         <v>37</v>
@@ -28867,7 +28867,7 @@
         <v>2012</v>
       </c>
       <c r="B345" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C345" t="s">
         <v>43</v>
@@ -28941,7 +28941,7 @@
         <v>2012</v>
       </c>
       <c r="B346" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C346" t="s">
         <v>46</v>
@@ -29089,7 +29089,7 @@
         <v>2012</v>
       </c>
       <c r="B348" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C348" t="s">
         <v>50</v>
@@ -29163,7 +29163,7 @@
         <v>2012</v>
       </c>
       <c r="B349" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C349" t="s">
         <v>52</v>
@@ -29397,7 +29397,7 @@
         <v>2012</v>
       </c>
       <c r="B352" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C352" t="s">
         <v>58</v>
@@ -29477,7 +29477,7 @@
         <v>2012</v>
       </c>
       <c r="B353" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C353" t="s">
         <v>61</v>
@@ -29551,7 +29551,7 @@
         <v>2012</v>
       </c>
       <c r="B354" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C354" t="s">
         <v>64</v>
@@ -29631,7 +29631,7 @@
         <v>2011</v>
       </c>
       <c r="B355" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C355" t="s">
         <v>1</v>
@@ -29711,7 +29711,7 @@
         <v>2011</v>
       </c>
       <c r="B356" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C356" t="s">
         <v>3</v>
@@ -29933,7 +29933,7 @@
         <v>2011</v>
       </c>
       <c r="B359" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C359" t="s">
         <v>9</v>
@@ -30007,7 +30007,7 @@
         <v>2011</v>
       </c>
       <c r="B360" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C360" t="s">
         <v>11</v>
@@ -30081,7 +30081,7 @@
         <v>2011</v>
       </c>
       <c r="B361" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C361" t="s">
         <v>11</v>
@@ -30229,7 +30229,7 @@
         <v>2011</v>
       </c>
       <c r="B363" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C363" t="s">
         <v>16</v>
@@ -30303,7 +30303,7 @@
         <v>2011</v>
       </c>
       <c r="B364" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C364" t="s">
         <v>18</v>
@@ -30377,7 +30377,7 @@
         <v>2011</v>
       </c>
       <c r="B365" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C365" t="s">
         <v>20</v>
@@ -30457,7 +30457,7 @@
         <v>2011</v>
       </c>
       <c r="B366" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C366" t="s">
         <v>31</v>
@@ -30605,7 +30605,7 @@
         <v>2011</v>
       </c>
       <c r="B368" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C368" t="s">
         <v>31</v>
@@ -30679,7 +30679,7 @@
         <v>2011</v>
       </c>
       <c r="B369" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C369" t="s">
         <v>22</v>
@@ -30753,7 +30753,7 @@
         <v>2011</v>
       </c>
       <c r="B370" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C370" t="s">
         <v>24</v>
@@ -30827,7 +30827,7 @@
         <v>2011</v>
       </c>
       <c r="B371" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C371" t="s">
         <v>26</v>
@@ -30975,7 +30975,7 @@
         <v>2011</v>
       </c>
       <c r="B373" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C373" t="s">
         <v>33</v>
@@ -31055,7 +31055,7 @@
         <v>2011</v>
       </c>
       <c r="B374" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C374" t="s">
         <v>35</v>
@@ -31129,7 +31129,7 @@
         <v>2011</v>
       </c>
       <c r="B375" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C375" t="s">
         <v>37</v>
@@ -31283,7 +31283,7 @@
         <v>2011</v>
       </c>
       <c r="B377" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C377" t="s">
         <v>41</v>
@@ -31431,7 +31431,7 @@
         <v>2011</v>
       </c>
       <c r="B379" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C379" t="s">
         <v>43</v>
@@ -31511,7 +31511,7 @@
         <v>2011</v>
       </c>
       <c r="B380" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C380" t="s">
         <v>46</v>
@@ -31659,7 +31659,7 @@
         <v>2011</v>
       </c>
       <c r="B382" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C382" t="s">
         <v>50</v>
@@ -31733,7 +31733,7 @@
         <v>2011</v>
       </c>
       <c r="B383" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C383" t="s">
         <v>52</v>
@@ -31967,7 +31967,7 @@
         <v>2011</v>
       </c>
       <c r="B386" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C386" t="s">
         <v>58</v>
@@ -32047,7 +32047,7 @@
         <v>2011</v>
       </c>
       <c r="B387" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C387" t="s">
         <v>61</v>
@@ -32121,7 +32121,7 @@
         <v>2011</v>
       </c>
       <c r="B388" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C388" t="s">
         <v>64</v>
@@ -32195,7 +32195,7 @@
         <v>2011</v>
       </c>
       <c r="B389" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C389" t="s">
         <v>64</v>
@@ -32269,7 +32269,7 @@
         <v>2011</v>
       </c>
       <c r="B390" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C390" t="s">
         <v>64</v>
@@ -32417,7 +32417,7 @@
         <v>2010</v>
       </c>
       <c r="B392" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C392" t="s">
         <v>1</v>
@@ -32491,7 +32491,7 @@
         <v>2010</v>
       </c>
       <c r="B393" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C393" t="s">
         <v>3</v>
@@ -32571,7 +32571,7 @@
         <v>2010</v>
       </c>
       <c r="B394" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -32645,7 +32645,7 @@
         <v>2010</v>
       </c>
       <c r="B395" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -32867,7 +32867,7 @@
         <v>2010</v>
       </c>
       <c r="B398" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C398" t="s">
         <v>9</v>
@@ -32941,7 +32941,7 @@
         <v>2010</v>
       </c>
       <c r="B399" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C399" t="s">
         <v>9</v>
@@ -33015,7 +33015,7 @@
         <v>2010</v>
       </c>
       <c r="B400" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C400" t="s">
         <v>11</v>
@@ -33169,7 +33169,7 @@
         <v>2010</v>
       </c>
       <c r="B402" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C402" t="s">
         <v>16</v>
@@ -33243,7 +33243,7 @@
         <v>2010</v>
       </c>
       <c r="B403" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C403" t="s">
         <v>18</v>
@@ -33317,7 +33317,7 @@
         <v>2010</v>
       </c>
       <c r="B404" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C404" t="s">
         <v>20</v>
@@ -33391,7 +33391,7 @@
         <v>2010</v>
       </c>
       <c r="B405" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C405" t="s">
         <v>31</v>
@@ -33465,7 +33465,7 @@
         <v>2010</v>
       </c>
       <c r="B406" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C406" t="s">
         <v>31</v>
@@ -33539,7 +33539,7 @@
         <v>2010</v>
       </c>
       <c r="B407" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C407" t="s">
         <v>22</v>
@@ -33613,7 +33613,7 @@
         <v>2010</v>
       </c>
       <c r="B408" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C408" t="s">
         <v>24</v>
@@ -33687,7 +33687,7 @@
         <v>2010</v>
       </c>
       <c r="B409" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C409" t="s">
         <v>24</v>
@@ -33761,7 +33761,7 @@
         <v>2010</v>
       </c>
       <c r="B410" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C410" t="s">
         <v>26</v>
@@ -33835,7 +33835,7 @@
         <v>2010</v>
       </c>
       <c r="B411" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C411" t="s">
         <v>29</v>
@@ -33909,7 +33909,7 @@
         <v>2010</v>
       </c>
       <c r="B412" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C412" t="s">
         <v>33</v>
@@ -33983,7 +33983,7 @@
         <v>2010</v>
       </c>
       <c r="B413" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C413" t="s">
         <v>35</v>
@@ -34063,7 +34063,7 @@
         <v>2010</v>
       </c>
       <c r="B414" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C414" t="s">
         <v>37</v>
@@ -34217,7 +34217,7 @@
         <v>2010</v>
       </c>
       <c r="B416" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C416" t="s">
         <v>41</v>
@@ -34291,7 +34291,7 @@
         <v>2010</v>
       </c>
       <c r="B417" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C417" t="s">
         <v>43</v>
@@ -34371,7 +34371,7 @@
         <v>2010</v>
       </c>
       <c r="B418" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C418" t="s">
         <v>46</v>
@@ -34519,7 +34519,7 @@
         <v>2010</v>
       </c>
       <c r="B420" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C420" t="s">
         <v>50</v>
@@ -34593,7 +34593,7 @@
         <v>2010</v>
       </c>
       <c r="B421" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C421" t="s">
         <v>50</v>
@@ -34667,7 +34667,7 @@
         <v>2010</v>
       </c>
       <c r="B422" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C422" t="s">
         <v>52</v>
@@ -34901,7 +34901,7 @@
         <v>2010</v>
       </c>
       <c r="B425" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C425" t="s">
         <v>58</v>
@@ -34981,7 +34981,7 @@
         <v>2010</v>
       </c>
       <c r="B426" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C426" t="s">
         <v>61</v>
@@ -35055,7 +35055,7 @@
         <v>2010</v>
       </c>
       <c r="B427" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C427" t="s">
         <v>64</v>
@@ -35277,7 +35277,7 @@
         <v>2009</v>
       </c>
       <c r="B430" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C430" t="s">
         <v>3</v>
@@ -35351,7 +35351,7 @@
         <v>2009</v>
       </c>
       <c r="B431" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -35505,7 +35505,7 @@
         <v>2009</v>
       </c>
       <c r="B433" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C433" t="s">
         <v>9</v>
@@ -35579,7 +35579,7 @@
         <v>2009</v>
       </c>
       <c r="B434" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C434" t="s">
         <v>11</v>
@@ -35727,7 +35727,7 @@
         <v>2009</v>
       </c>
       <c r="B436" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C436" t="s">
         <v>16</v>
@@ -35801,7 +35801,7 @@
         <v>2009</v>
       </c>
       <c r="B437" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C437" t="s">
         <v>18</v>
@@ -35875,7 +35875,7 @@
         <v>2009</v>
       </c>
       <c r="B438" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C438" t="s">
         <v>18</v>
@@ -35955,7 +35955,7 @@
         <v>2009</v>
       </c>
       <c r="B439" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C439" t="s">
         <v>20</v>
@@ -36029,7 +36029,7 @@
         <v>2009</v>
       </c>
       <c r="B440" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C440" t="s">
         <v>31</v>
@@ -36103,7 +36103,7 @@
         <v>2009</v>
       </c>
       <c r="B441" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C441" t="s">
         <v>22</v>
@@ -36177,7 +36177,7 @@
         <v>2009</v>
       </c>
       <c r="B442" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C442" t="s">
         <v>22</v>
@@ -36251,7 +36251,7 @@
         <v>2009</v>
       </c>
       <c r="B443" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C443" t="s">
         <v>24</v>
@@ -36325,7 +36325,7 @@
         <v>2009</v>
       </c>
       <c r="B444" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C444" t="s">
         <v>26</v>
@@ -36405,7 +36405,7 @@
         <v>2009</v>
       </c>
       <c r="B445" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C445" t="s">
         <v>29</v>
@@ -36485,7 +36485,7 @@
         <v>2009</v>
       </c>
       <c r="B446" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C446" t="s">
         <v>33</v>
@@ -36559,7 +36559,7 @@
         <v>2009</v>
       </c>
       <c r="B447" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C447" t="s">
         <v>35</v>
@@ -36639,7 +36639,7 @@
         <v>2009</v>
       </c>
       <c r="B448" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C448" t="s">
         <v>37</v>
@@ -36793,7 +36793,7 @@
         <v>2009</v>
       </c>
       <c r="B450" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C450" t="s">
         <v>41</v>
@@ -36867,7 +36867,7 @@
         <v>2009</v>
       </c>
       <c r="B451" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C451" t="s">
         <v>43</v>
@@ -36947,7 +36947,7 @@
         <v>2009</v>
       </c>
       <c r="B452" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C452" t="s">
         <v>46</v>
@@ -37095,7 +37095,7 @@
         <v>2009</v>
       </c>
       <c r="B454" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C454" t="s">
         <v>50</v>
@@ -37169,7 +37169,7 @@
         <v>2009</v>
       </c>
       <c r="B455" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C455" t="s">
         <v>52</v>
@@ -37397,7 +37397,7 @@
         <v>2009</v>
       </c>
       <c r="B458" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C458" t="s">
         <v>58</v>
@@ -37471,7 +37471,7 @@
         <v>2009</v>
       </c>
       <c r="B459" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C459" t="s">
         <v>61</v>
@@ -37545,7 +37545,7 @@
         <v>2009</v>
       </c>
       <c r="B460" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C460" t="s">
         <v>64</v>
@@ -37619,7 +37619,7 @@
         <v>2009</v>
       </c>
       <c r="B461" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C461" t="s">
         <v>64</v>
@@ -37767,7 +37767,7 @@
         <v>2008</v>
       </c>
       <c r="B463" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C463" t="s">
         <v>3</v>
@@ -37841,7 +37841,7 @@
         <v>2008</v>
       </c>
       <c r="B464" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -37995,7 +37995,7 @@
         <v>2008</v>
       </c>
       <c r="B466" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C466" t="s">
         <v>9</v>
@@ -38075,7 +38075,7 @@
         <v>2008</v>
       </c>
       <c r="B467" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C467" t="s">
         <v>11</v>
@@ -38229,7 +38229,7 @@
         <v>2008</v>
       </c>
       <c r="B469" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C469" t="s">
         <v>16</v>
@@ -38303,7 +38303,7 @@
         <v>2008</v>
       </c>
       <c r="B470" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C470" t="s">
         <v>18</v>
@@ -38377,7 +38377,7 @@
         <v>2008</v>
       </c>
       <c r="B471" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C471" t="s">
         <v>20</v>
@@ -38451,7 +38451,7 @@
         <v>2008</v>
       </c>
       <c r="B472" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C472" t="s">
         <v>31</v>
@@ -38525,7 +38525,7 @@
         <v>2008</v>
       </c>
       <c r="B473" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C473" t="s">
         <v>22</v>
@@ -38599,7 +38599,7 @@
         <v>2008</v>
       </c>
       <c r="B474" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C474" t="s">
         <v>24</v>
@@ -38673,7 +38673,7 @@
         <v>2008</v>
       </c>
       <c r="B475" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C475" t="s">
         <v>26</v>
@@ -38753,7 +38753,7 @@
         <v>2008</v>
       </c>
       <c r="B476" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C476" t="s">
         <v>29</v>
@@ -38833,7 +38833,7 @@
         <v>2008</v>
       </c>
       <c r="B477" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C477" t="s">
         <v>33</v>
@@ -38907,7 +38907,7 @@
         <v>2008</v>
       </c>
       <c r="B478" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C478" t="s">
         <v>33</v>
@@ -38987,7 +38987,7 @@
         <v>2008</v>
       </c>
       <c r="B479" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C479" t="s">
         <v>35</v>
@@ -39061,7 +39061,7 @@
         <v>2008</v>
       </c>
       <c r="B480" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C480" t="s">
         <v>37</v>
@@ -39135,7 +39135,7 @@
         <v>2008</v>
       </c>
       <c r="B481" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C481" t="s">
         <v>37</v>
@@ -39283,7 +39283,7 @@
         <v>2008</v>
       </c>
       <c r="B483" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C483" t="s">
         <v>41</v>
@@ -39357,7 +39357,7 @@
         <v>2008</v>
       </c>
       <c r="B484" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C484" t="s">
         <v>43</v>
@@ -39437,7 +39437,7 @@
         <v>2008</v>
       </c>
       <c r="B485" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C485" t="s">
         <v>46</v>
@@ -39585,7 +39585,7 @@
         <v>2008</v>
       </c>
       <c r="B487" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C487" t="s">
         <v>50</v>
@@ -39659,7 +39659,7 @@
         <v>2008</v>
       </c>
       <c r="B488" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C488" t="s">
         <v>50</v>
@@ -39733,7 +39733,7 @@
         <v>2008</v>
       </c>
       <c r="B489" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C489" t="s">
         <v>52</v>
@@ -39961,7 +39961,7 @@
         <v>2008</v>
       </c>
       <c r="B492" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C492" t="s">
         <v>58</v>
@@ -40035,7 +40035,7 @@
         <v>2008</v>
       </c>
       <c r="B493" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C493" t="s">
         <v>61</v>
@@ -40109,7 +40109,7 @@
         <v>2008</v>
       </c>
       <c r="B494" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C494" t="s">
         <v>61</v>
@@ -40183,7 +40183,7 @@
         <v>2008</v>
       </c>
       <c r="B495" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C495" t="s">
         <v>64</v>
